--- a/fundamentals.xlsx
+++ b/fundamentals.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2025\Desktop\my_telegram_bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{72C98947-2F9F-425A-9365-AAFF7A12BFA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9E7CC5F-280D-4217-ACF9-D9E1127B1E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FFE80E41-CCF1-4904-A2CD-1E19F563A49E}"/>
   </bookViews>
@@ -590,7 +590,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24080565-1BA4-4AA9-A1AE-04CC596C981E}">
   <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -659,8 +661,8 @@
       <c r="D2" s="2">
         <v>25.12</v>
       </c>
-      <c r="E2" s="2">
-        <v>1</v>
+      <c r="E2">
+        <v>2.23</v>
       </c>
       <c r="F2" s="2">
         <v>5.37</v>
@@ -700,8 +702,8 @@
       <c r="D3" s="2">
         <v>21.6</v>
       </c>
-      <c r="E3" s="2">
-        <v>1</v>
+      <c r="E3">
+        <v>2.92</v>
       </c>
       <c r="F3" s="2">
         <v>1.5</v>
@@ -741,8 +743,8 @@
       <c r="D4" s="2">
         <v>39.26</v>
       </c>
-      <c r="E4" s="2">
-        <v>1</v>
+      <c r="E4">
+        <v>9.6300000000000008</v>
       </c>
       <c r="F4" s="2">
         <v>2.65</v>
@@ -783,7 +785,7 @@
         <v>22.28</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>11.56</v>
       </c>
       <c r="F5">
         <v>81.78</v>
@@ -824,7 +826,7 @@
         <v>19.48</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3.29</v>
       </c>
       <c r="F6">
         <v>1.83</v>
@@ -862,7 +864,7 @@
         <v>9.58</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>1.47</v>
       </c>
       <c r="F7">
         <v>1.35</v>
@@ -903,7 +905,7 @@
         <v>21.9</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>6.28</v>
       </c>
       <c r="F8">
         <v>93.13</v>
@@ -944,7 +946,7 @@
         <v>56.01</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>11.98</v>
       </c>
       <c r="F9">
         <v>33.549999999999997</v>
@@ -985,7 +987,7 @@
         <v>31.28</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>5.62</v>
       </c>
       <c r="F10">
         <v>1.89</v>
@@ -1026,7 +1028,7 @@
         <v>25.76</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>7.41</v>
       </c>
       <c r="F11">
         <v>525.48</v>
@@ -1067,7 +1069,7 @@
         <v>32.119999999999997</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="F12">
         <v>3.47</v>
@@ -1108,7 +1110,7 @@
         <v>29.25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>5.15</v>
       </c>
       <c r="F13">
         <v>3.14</v>
@@ -1149,7 +1151,7 @@
         <v>20.79</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>5.66</v>
       </c>
       <c r="F14">
         <v>1.87</v>
@@ -1190,7 +1192,7 @@
         <v>23.4</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="F15">
         <v>35.35</v>
@@ -1231,7 +1233,7 @@
         <v>27.12</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>4.07</v>
       </c>
       <c r="F16">
         <v>108.39</v>
@@ -1272,7 +1274,7 @@
         <v>33.39</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>5.29</v>
       </c>
       <c r="F17">
         <v>62.31</v>
@@ -1313,7 +1315,7 @@
         <v>52.13</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="F18">
         <v>6.27</v>
@@ -1354,7 +1356,7 @@
         <v>11.93</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>1.77</v>
       </c>
       <c r="F19">
         <v>1.5</v>
@@ -1395,7 +1397,7 @@
         <v>13.44</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>1.74</v>
       </c>
       <c r="F20">
         <v>3.42</v>
@@ -1436,7 +1438,7 @@
         <v>32.28</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>4.21</v>
       </c>
       <c r="F21">
         <v>1.98</v>
@@ -1477,7 +1479,7 @@
         <v>90.92</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>26.21</v>
       </c>
       <c r="F22">
         <v>5.76</v>
@@ -1518,7 +1520,7 @@
         <v>26.05</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="F23">
         <v>5.45</v>
@@ -1559,7 +1561,7 @@
         <v>8.09</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>9.51</v>
       </c>
       <c r="F24">
         <v>4.62</v>
@@ -1600,7 +1602,7 @@
         <v>964.87</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="F25">
         <v>3.79</v>
@@ -1641,7 +1643,7 @@
         <v>51.82</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>14.23</v>
       </c>
       <c r="F26">
         <v>738.97</v>
@@ -1682,7 +1684,7 @@
         <v>74.040000000000006</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>2.87</v>
       </c>
       <c r="F27">
         <v>1.98</v>
@@ -1723,7 +1725,7 @@
         <v>17.170000000000002</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>5.18</v>
       </c>
       <c r="F28">
         <v>3.23</v>
@@ -1764,7 +1766,7 @@
         <v>50.83</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3.21</v>
       </c>
       <c r="F29">
         <v>1.85</v>
@@ -1805,7 +1807,7 @@
         <v>18.690000000000001</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3.02</v>
       </c>
       <c r="F30">
         <v>12.75</v>
@@ -1846,7 +1848,7 @@
         <v>8.52</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>12.25</v>
       </c>
       <c r="F31">
         <v>7.75</v>
@@ -1887,7 +1889,7 @@
         <v>62.05</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2.06</v>
       </c>
       <c r="F32">
         <v>25.85</v>
@@ -1928,7 +1930,7 @@
         <v>7.02</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2.34</v>
       </c>
       <c r="F33">
         <v>48.37</v>
@@ -1969,7 +1971,7 @@
         <v>30.08</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>6.42</v>
       </c>
       <c r="F34">
         <v>19.77</v>
@@ -2010,7 +2012,7 @@
         <v>71.58</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>52.28</v>
       </c>
       <c r="F35">
         <v>27.77</v>
@@ -2051,7 +2053,7 @@
         <v>129.49</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>1.66</v>
       </c>
       <c r="F36">
         <v>19.2</v>
@@ -2089,7 +2091,7 @@
         <v>43.93</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2.15</v>
       </c>
       <c r="F37">
         <v>2.31</v>
@@ -2130,7 +2132,7 @@
         <v>121.45</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>34.97</v>
       </c>
       <c r="F38">
         <v>15.23</v>
@@ -2171,7 +2173,7 @@
         <v>51.15</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>1.92</v>
       </c>
       <c r="F39">
         <v>1.86</v>
@@ -2212,7 +2214,7 @@
         <v>74.7</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>10.37</v>
       </c>
       <c r="G40">
         <v>1.28</v>
@@ -2250,7 +2252,7 @@
         <v>86.22</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>9.52</v>
       </c>
       <c r="G41">
         <v>0.95</v>
@@ -2288,7 +2290,7 @@
         <v>32.14</v>
       </c>
       <c r="E42">
-        <v>1</v>
+        <v>7.24</v>
       </c>
       <c r="F42">
         <v>107.81</v>
@@ -2329,7 +2331,7 @@
         <v>9.56</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="F43">
         <v>7.58</v>
@@ -2370,7 +2372,7 @@
         <v>31.72</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>5.22</v>
       </c>
       <c r="F44">
         <v>19.579999999999998</v>
@@ -2411,7 +2413,7 @@
         <v>22.33</v>
       </c>
       <c r="E45">
-        <v>1</v>
+        <v>3.83</v>
       </c>
       <c r="F45">
         <v>121.11</v>
@@ -2452,7 +2454,7 @@
         <v>13.93</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>2.09</v>
       </c>
       <c r="F46">
         <v>1.57</v>
@@ -2493,7 +2495,7 @@
         <v>79.41</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>5.2</v>
       </c>
       <c r="F47">
         <v>8.74</v>
@@ -2534,7 +2536,7 @@
         <v>71.459999999999994</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>12.38</v>
       </c>
       <c r="F48">
         <v>5.45</v>
@@ -2575,7 +2577,7 @@
         <v>17.670000000000002</v>
       </c>
       <c r="E49">
-        <v>1</v>
+        <v>2.96</v>
       </c>
       <c r="F49">
         <v>26.17</v>
@@ -2616,7 +2618,7 @@
         <v>17.78</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>4.67</v>
       </c>
       <c r="F50">
         <v>92.8</v>
@@ -2657,7 +2659,7 @@
         <v>53.26</v>
       </c>
       <c r="E51">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="F51">
         <v>1.05</v>
